--- a/Data/mariculture_crustacean_province.xlsx
+++ b/Data/mariculture_crustacean_province.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AquaFish\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" tabRatio="808" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6228" tabRatio="808" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="38" r:id="rId1"/>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="845">
   <si>
     <t>4</t>
   </si>
@@ -2586,7 +2591,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2891,7 +2896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2901,13 +2906,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -2939,7 +2944,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>7413</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3005,12 +3010,12 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3042,7 +3047,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>26563</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3106,7 +3111,7 @@
         <v>32335</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>24285</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3167,7 +3172,7 @@
         <v>47421</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>16730</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3226,17 +3231,17 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>844</v>
       </c>
       <c r="C1" t="s">
         <v>832</v>
@@ -3266,7 +3271,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3336,7 +3341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3371,7 +3376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3406,7 +3411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3441,7 +3446,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3511,7 +3516,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3546,7 +3551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3581,7 +3586,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3616,7 +3621,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3660,13 +3665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -3686,7 +3691,7 @@
         <v>836</v>
       </c>
       <c r="G1" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="H1" t="s">
         <v>838</v>
@@ -3698,7 +3703,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3730,7 +3735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3762,7 +3767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3858,7 +3863,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3922,7 +3927,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4060,24 +4065,24 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>836</v>
       </c>
       <c r="G1" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="H1" t="s">
         <v>838</v>
@@ -4109,7 +4114,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4167,7 +4172,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4252,7 +4257,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>25397</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4316,7 +4321,7 @@
         <v>22202</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4407,7 +4412,7 @@
         <v>10851</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4446,12 +4451,12 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -4471,7 +4476,7 @@
         <v>836</v>
       </c>
       <c r="G1" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="H1" t="s">
         <v>838</v>
@@ -4483,7 +4488,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4512,7 +4517,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4541,7 +4546,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4570,7 +4575,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4666,7 +4671,7 @@
         <v>29992</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4698,7 +4703,7 @@
         <v>19544</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4730,7 +4735,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>36379</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4794,7 +4799,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4839,9 +4844,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -4855,7 +4860,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4883,7 +4888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4897,7 +4902,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4911,7 +4916,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4925,7 +4930,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4939,7 +4944,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4953,7 +4958,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4981,7 +4986,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4995,7 +5000,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5022,9 +5027,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -5038,7 +5043,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5094,7 +5099,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5108,7 +5113,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5136,7 +5141,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5150,7 +5155,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5164,7 +5169,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5205,9 +5210,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -5221,7 +5226,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5249,7 +5254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5263,7 +5268,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -5277,7 +5282,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5291,7 +5296,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5305,7 +5310,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5319,7 +5324,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5347,7 +5352,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5361,7 +5366,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>518</v>
       </c>
@@ -5388,9 +5393,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5502,7 +5507,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5516,7 +5521,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5530,7 +5535,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5544,7 +5549,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5571,9 +5576,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5601,7 +5606,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5615,7 +5620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5643,7 +5648,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5657,7 +5662,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5671,7 +5676,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5685,7 +5690,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5699,7 +5704,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5713,7 +5718,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5727,7 +5732,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5754,9 +5759,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -5784,7 +5789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5798,7 +5803,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5812,7 +5817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5826,7 +5831,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5840,7 +5845,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5854,7 +5859,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5868,7 +5873,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5896,7 +5901,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5910,7 +5915,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5924,7 +5929,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5951,9 +5956,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -5985,7 +5990,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5999,7 +6004,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6025,7 +6030,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6051,12 +6056,12 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6088,7 +6093,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6120,7 +6125,7 @@
         <v>27363</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6152,7 +6157,7 @@
         <v>30667</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6182,7 +6187,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6214,7 +6219,7 @@
         <v>48270</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6240,7 +6245,7 @@
         <v>15729</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6279,9 +6284,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -6295,7 +6300,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -6309,7 +6314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6337,7 +6342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6351,7 +6356,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6365,7 +6370,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6379,7 +6384,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6407,7 +6412,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6435,7 +6440,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -6449,7 +6454,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6476,9 +6481,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -6489,7 +6494,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -6500,7 +6505,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6511,7 +6516,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6522,7 +6527,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6533,7 +6538,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6544,7 +6549,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6566,7 +6571,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6577,7 +6582,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -6588,7 +6593,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6599,7 +6604,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -6610,7 +6615,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6634,9 +6639,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -6647,7 +6652,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -6658,7 +6663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6680,17 +6685,17 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6701,17 +6706,17 @@
         <v>4671</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6722,7 +6727,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6733,7 +6738,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -6744,12 +6749,12 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -6760,12 +6765,12 @@
         <v>7077</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -6776,22 +6781,22 @@
         <v>14666</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -6802,7 +6807,7 @@
         <v>16749</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -6824,47 +6829,47 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>716</v>
       </c>
@@ -6882,9 +6887,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -6895,7 +6900,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -6906,7 +6911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6917,7 +6922,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6928,7 +6933,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6939,7 +6944,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6950,7 +6955,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6961,7 +6966,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6972,7 +6977,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6983,7 +6988,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -6994,7 +6999,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7005,7 +7010,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7016,7 +7021,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7040,9 +7045,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -7053,7 +7058,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -7064,7 +7069,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7075,7 +7080,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7086,7 +7091,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>699</v>
       </c>
@@ -7097,7 +7102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>700</v>
       </c>
@@ -7108,7 +7113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7119,7 +7124,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
@@ -7130,7 +7135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>702</v>
       </c>
@@ -7141,7 +7146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -7152,7 +7157,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -7163,7 +7168,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -7174,7 +7179,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>703</v>
       </c>
@@ -7185,7 +7190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7196,7 +7201,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>704</v>
       </c>
@@ -7207,7 +7212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -7218,7 +7223,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>705</v>
       </c>
@@ -7229,7 +7234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>706</v>
       </c>
@@ -7240,7 +7245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>707</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -7262,7 +7267,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -7273,7 +7278,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -7284,7 +7289,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>708</v>
       </c>
@@ -7295,7 +7300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>709</v>
       </c>
@@ -7306,7 +7311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>710</v>
       </c>
@@ -7317,7 +7322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>712</v>
       </c>
@@ -7328,7 +7333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>713</v>
       </c>
@@ -7339,7 +7344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>714</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>715</v>
       </c>
@@ -7361,7 +7366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>716</v>
       </c>
@@ -7385,9 +7390,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -7398,7 +7403,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -7409,7 +7414,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>611</v>
       </c>
@@ -7420,7 +7425,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7431,7 +7436,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>699</v>
       </c>
@@ -7453,7 +7458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>700</v>
       </c>
@@ -7464,7 +7469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7475,7 +7480,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>701</v>
       </c>
@@ -7486,7 +7491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>702</v>
       </c>
@@ -7497,7 +7502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7508,7 +7513,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7519,7 +7524,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7530,7 +7535,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>703</v>
       </c>
@@ -7541,7 +7546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -7552,7 +7557,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>704</v>
       </c>
@@ -7563,7 +7568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -7574,7 +7579,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>705</v>
       </c>
@@ -7585,7 +7590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>706</v>
       </c>
@@ -7596,7 +7601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>707</v>
       </c>
@@ -7607,7 +7612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -7618,7 +7623,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7629,7 +7634,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -7640,7 +7645,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>708</v>
       </c>
@@ -7651,7 +7656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>709</v>
       </c>
@@ -7662,7 +7667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>710</v>
       </c>
@@ -7673,7 +7678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>711</v>
       </c>
@@ -7684,7 +7689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>712</v>
       </c>
@@ -7695,7 +7700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>713</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>714</v>
       </c>
@@ -7717,7 +7722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>715</v>
       </c>
@@ -7728,7 +7733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>716</v>
       </c>
@@ -7752,9 +7757,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -7765,7 +7770,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -7776,7 +7781,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7787,7 +7792,7 @@
         <v>6732</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7798,7 +7803,7 @@
         <v>29053</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>699</v>
       </c>
@@ -7806,13 +7811,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>700</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7823,7 +7828,7 @@
         <v>48207</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
@@ -7831,13 +7836,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>702</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -7848,7 +7853,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -7859,7 +7864,7 @@
         <v>7978</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -7870,7 +7875,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>703</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>23239</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>704</v>
       </c>
@@ -7898,7 +7903,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -7909,7 +7914,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>705</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>706</v>
       </c>
@@ -7925,7 +7930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>707</v>
       </c>
@@ -7933,7 +7938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -7944,7 +7949,7 @@
         <v>14643</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -7955,7 +7960,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>708</v>
       </c>
@@ -7974,7 +7979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>709</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>710</v>
       </c>
@@ -7990,7 +7995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>712</v>
       </c>
@@ -7998,7 +8003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>713</v>
       </c>
@@ -8006,7 +8011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>714</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>715</v>
       </c>
@@ -8022,7 +8027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>716</v>
       </c>
@@ -8043,9 +8048,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -8056,7 +8061,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -8067,7 +8072,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -8078,7 +8083,7 @@
         <v>6939</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -8089,17 +8094,17 @@
         <v>26814</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8110,17 +8115,17 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -8131,7 +8136,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -8142,7 +8147,7 @@
         <v>11628</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -8153,12 +8158,12 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8169,13 +8174,13 @@
         <v>25637</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>704</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -8186,22 +8191,22 @@
         <v>51414</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -8212,7 +8217,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -8223,7 +8228,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -8234,42 +8239,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>716</v>
       </c>
@@ -8287,9 +8292,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -8300,7 +8305,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -8311,7 +8316,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -8322,7 +8327,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -8333,7 +8338,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>699</v>
       </c>
@@ -8344,7 +8349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>700</v>
       </c>
@@ -8355,7 +8360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
@@ -8377,7 +8382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>702</v>
       </c>
@@ -8388,7 +8393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -8399,7 +8404,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -8410,7 +8415,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -8421,7 +8426,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>703</v>
       </c>
@@ -8432,7 +8437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>704</v>
       </c>
@@ -8454,7 +8459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -8465,7 +8470,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>705</v>
       </c>
@@ -8476,7 +8481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>706</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>707</v>
       </c>
@@ -8498,7 +8503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -8509,7 +8514,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -8520,7 +8525,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -8531,7 +8536,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>708</v>
       </c>
@@ -8542,7 +8547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>709</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>710</v>
       </c>
@@ -8564,7 +8569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>711</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>712</v>
       </c>
@@ -8586,7 +8591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>713</v>
       </c>
@@ -8597,7 +8602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>714</v>
       </c>
@@ -8608,7 +8613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>715</v>
       </c>
@@ -8619,7 +8624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>716</v>
       </c>
@@ -8643,9 +8648,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -8656,7 +8661,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -8678,7 +8683,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -8689,17 +8694,17 @@
         <v>24937</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8710,17 +8715,17 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -8742,7 +8747,7 @@
         <v>11777</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -8753,12 +8758,12 @@
         <v>7228</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8769,12 +8774,12 @@
         <v>13338</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -8785,22 +8790,22 @@
         <v>33919</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -8811,7 +8816,7 @@
         <v>11577</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -8822,37 +8827,37 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>714</v>
       </c>
@@ -8866,13 +8871,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -8904,7 +8909,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8921,7 +8926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8973,12 +8978,12 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -9010,7 +9015,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -9042,7 +9047,7 @@
         <v>27279</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -9074,7 +9079,7 @@
         <v>29705</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -9106,7 +9111,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -9138,7 +9143,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -9168,7 +9173,7 @@
         <v>776574</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -9207,9 +9212,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -9220,7 +9225,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -9231,7 +9236,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -9242,7 +9247,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -9253,17 +9258,17 @@
         <v>11971</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9274,17 +9279,17 @@
         <v>24666</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -9295,7 +9300,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -9306,7 +9311,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -9317,12 +9322,12 @@
         <v>5755</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -9333,12 +9338,12 @@
         <v>6189</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -9349,22 +9354,22 @@
         <v>17379</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -9375,7 +9380,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -9386,47 +9391,47 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>716</v>
       </c>
@@ -9444,9 +9449,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -9468,7 +9473,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -9479,7 +9484,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -9490,7 +9495,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -9501,7 +9506,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -9512,7 +9517,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -9523,7 +9528,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -9534,7 +9539,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -9545,7 +9550,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9556,7 +9561,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -9567,7 +9572,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -9591,9 +9596,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -9604,7 +9609,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -9615,7 +9620,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9626,7 +9631,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9637,7 +9642,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -9648,7 +9653,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -9659,7 +9664,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -9670,7 +9675,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -9681,7 +9686,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -9692,7 +9697,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -9703,7 +9708,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -9727,9 +9732,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -9740,12 +9745,12 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -9756,7 +9761,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -9767,17 +9772,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9788,17 +9793,17 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -9809,7 +9814,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -9820,7 +9825,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -9831,12 +9836,12 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -9847,12 +9852,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -9863,22 +9868,22 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -9889,7 +9894,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -9900,52 +9905,52 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>716</v>
       </c>
@@ -9959,13 +9964,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -9997,7 +10002,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -10014,7 +10019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10040,7 +10045,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -10066,7 +10071,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10086,7 +10091,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -10118,7 +10123,7 @@
         <v>26038</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10135,7 +10140,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -10167,7 +10172,7 @@
         <v>27472</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -10199,7 +10204,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -10231,7 +10236,7 @@
         <v>43576</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -10257,7 +10262,7 @@
         <v>14212</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -10296,12 +10301,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -10333,7 +10338,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -10351,7 +10356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10378,7 +10383,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -10405,12 +10410,12 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -10442,7 +10447,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10474,7 +10479,7 @@
         <v>26301</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -10506,7 +10511,7 @@
         <v>25119</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -10538,7 +10543,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -10570,7 +10575,7 @@
         <v>40841</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -10600,7 +10605,7 @@
         <v>689181</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -10637,13 +10642,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -10675,7 +10680,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -10698,7 +10703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10727,7 +10732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -10753,12 +10758,12 @@
         <v>860</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -10790,7 +10795,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10822,7 +10827,7 @@
         <v>24082</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -10854,7 +10859,7 @@
         <v>23536</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -10886,7 +10891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -10918,7 +10923,7 @@
         <v>41478</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -10944,7 +10949,7 @@
         <v>12561</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -10983,9 +10988,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -11017,7 +11022,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -11040,7 +11045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11069,7 +11074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -11095,12 +11100,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -11132,7 +11137,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -11164,7 +11169,7 @@
         <v>22403</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -11196,7 +11201,7 @@
         <v>24322</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -11228,7 +11233,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -11260,7 +11265,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -11286,7 +11291,7 @@
         <v>12626</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -11321,19 +11326,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -11365,7 +11370,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -11394,7 +11399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11426,7 +11431,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -11455,7 +11460,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11481,7 +11486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -11513,7 +11518,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -11545,7 +11550,7 @@
         <v>24729</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -11577,7 +11582,7 @@
         <v>22082</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -11609,7 +11614,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>38480</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -11671,7 +11676,7 @@
         <v>14023</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -11716,9 +11721,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -11750,7 +11755,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -11782,7 +11787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11814,7 +11819,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -11846,7 +11851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11878,7 +11883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -11910,7 +11915,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -11942,7 +11947,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -11974,7 +11979,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12006,7 +12011,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -12038,7 +12043,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -12070,7 +12075,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
